--- a/data/adult_brain/karissas_metadata.xlsx
+++ b/data/adult_brain/karissas_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karissabarthelson/Documents/2022_q96vnaglu_6madultbrain/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karissabarthelson/Documents/2021_MPSIIIBvQ96-RNAseq-7dpfLarve/data/adult_brain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3553A9C-7748-E441-B8BF-8C5167D7EE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7CAB06-DBE5-9B45-83D3-FFDDF7BBFC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41320" yWindow="-5140" windowWidth="20200" windowHeight="20760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="105">
   <si>
     <t>fish</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>22-02953</t>
+  </si>
+  <si>
+    <t>22-02947</t>
   </si>
 </sst>
 </file>
@@ -5545,8 +5548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F09DCDC-E62D-5D4E-BFD2-4CAE5F83F4CD}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W34" sqref="W3:W34"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7611,7 +7614,7 @@
         <v>21</v>
       </c>
       <c r="Z26" s="27" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA26" s="24"/>
     </row>
